--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2624AE7-D062-427D-8B9E-5E3D86A9F1E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>website name</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Mobiles</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +75,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +362,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2624AE7-D062-427D-8B9E-5E3D86A9F1E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19859E-879D-47A4-8E73-04E4655486E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>website name</t>
   </si>
   <si>
-    <t>https://www.flipkart.com/</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
     <t>Element Name</t>
   </si>
   <si>
-    <t>Mobiles</t>
+    <t>//a[@id='w3loginbtn']</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,25 +378,36 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19859E-879D-47A4-8E73-04E4655486E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD052854-9F78-448E-A290-EEC76DCA691C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>website name</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>https://www.w3schools.com/</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>//a[@id='signupbtn_topnav']</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,15 +405,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD052854-9F78-448E-A290-EEC76DCA691C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800FA03-A5D5-4EDE-AB72-1422DE45B4DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>website name</t>
   </si>
@@ -34,16 +34,22 @@
     <t>//a[@id='w3loginbtn']</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>https://www.w3schools.com/</t>
   </si>
   <si>
-    <t>Signup</t>
-  </si>
-  <si>
     <t>//a[@id='signupbtn_topnav']</t>
+  </si>
+  <si>
+    <t>Javascript link</t>
+  </si>
+  <si>
+    <t>//a[text()='JAVASCRIPT']</t>
+  </si>
+  <si>
+    <t>Signup Button</t>
+  </si>
+  <si>
+    <t>Login Buttton</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -405,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,10 +422,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800FA03-A5D5-4EDE-AB72-1422DE45B4DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6D19-1EF8-4158-9E15-6F6038EF9011}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>website name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Login Buttton</t>
+  </si>
+  <si>
+    <t>//span[text()=' Sign up']</t>
   </si>
 </sst>
 </file>
@@ -378,19 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -406,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -416,8 +420,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -428,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6D19-1EF8-4158-9E15-6F6038EF9011}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E00CFF-6818-48AD-B30F-444F47BA4854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>website name</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>//span[text()=' Sign up']</t>
+  </si>
+  <si>
+    <t>//input[@name='email']</t>
+  </si>
+  <si>
+    <t>Password Textbox</t>
+  </si>
+  <si>
+    <t>Email Id Textbox</t>
+  </si>
+  <si>
+    <t>//input[@type='password']</t>
   </si>
 </sst>
 </file>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +458,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E00CFF-6818-48AD-B30F-444F47BA4854}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C387680-379C-4618-BD55-846EF67B100E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>website name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>//input[@type='password']</t>
+  </si>
+  <si>
+    <t>Show Icon Button</t>
+  </si>
+  <si>
+    <t>//span[text()='Show ']</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +486,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C387680-379C-4618-BD55-846EF67B100E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768E00-2803-4E90-A6E6-E899FF5DEC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>website name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>//a[text()='JAVASCRIPT']</t>
   </si>
   <si>
-    <t>Signup Button</t>
-  </si>
-  <si>
     <t>Login Buttton</t>
   </si>
   <si>
@@ -71,6 +68,15 @@
   </si>
   <si>
     <t>//span[text()='Show ']</t>
+  </si>
+  <si>
+    <t>//span[text()="Log in"]</t>
+  </si>
+  <si>
+    <t>Signup Button link</t>
+  </si>
+  <si>
+    <t>Login Buttton link</t>
   </si>
 </sst>
 </file>
@@ -94,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,11 +433,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -433,13 +446,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -469,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,9 +504,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768E00-2803-4E90-A6E6-E899FF5DEC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D86CDC-8C37-4F54-8883-85343D4CE555}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>website name</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Login Buttton link</t>
+  </si>
+  <si>
+    <t>//div[@class="ButtonV2_text__hrU4c"]</t>
+  </si>
+  <si>
+    <t>//div[text()="Continue with Google"]</t>
+  </si>
+  <si>
+    <t>//div[text()="Continue with GitHub"]</t>
+  </si>
+  <si>
+    <t>Continue with face book</t>
+  </si>
+  <si>
+    <t>Continue with Google</t>
+  </si>
+  <si>
+    <t>Continue with GitHub</t>
   </si>
 </sst>
 </file>
@@ -412,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,6 +537,64 @@
       </c>
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D86CDC-8C37-4F54-8883-85343D4CE555}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF03A3-434D-41F0-92DB-A263FD7750BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>website name</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Continue with GitHub</t>
+  </si>
+  <si>
+    <t>//a[@id='nav-logo-sprites']</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>Amazon.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello </t>
+  </si>
+  <si>
+    <t>//span[@id='glow-ingress-line1']</t>
   </si>
 </sst>
 </file>
@@ -430,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,14 +602,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF03A3-434D-41F0-92DB-A263FD7750BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FA502-11CB-495C-AE21-E2D53831BD3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>website name</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>//span[@id='glow-ingress-line1']</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>//input[@type='text']</t>
   </si>
 </sst>
 </file>
@@ -654,6 +660,12 @@
       <c r="A25">
         <v>3</v>
       </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FA502-11CB-495C-AE21-E2D53831BD3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA9351-53C8-4D3A-B3DC-4D70D01C96B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +667,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA9351-53C8-4D3A-B3DC-4D70D01C96B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031354E-AF28-4E1F-89C9-F18200CE06E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>website name</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>//input[@type='text']</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>//span[@class='nav-cart-icon nav-sprite']</t>
   </si>
 </sst>
 </file>
@@ -453,14 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,6 +676,12 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031354E-AF28-4E1F-89C9-F18200CE06E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CABAC5B-0E0A-4A16-93D1-FCB57391E7A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CABAC5B-0E0A-4A16-93D1-FCB57391E7A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA352D7-13BE-4917-BCE4-F5BD6B3E4E95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>website name</t>
   </si>
@@ -122,6 +122,69 @@
   </si>
   <si>
     <t>//span[@class='nav-cart-icon nav-sprite']</t>
+  </si>
+  <si>
+    <t>//select[@name="url"]</t>
+  </si>
+  <si>
+    <t>All select Button</t>
+  </si>
+  <si>
+    <t>//a[text()="Careers"]</t>
+  </si>
+  <si>
+    <t>Careers Link</t>
+  </si>
+  <si>
+    <t>Cannada link</t>
+  </si>
+  <si>
+    <t>//a[text()="Canada"]</t>
+  </si>
+  <si>
+    <t>//div[@class="orangehrm-login-logo"]</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo </t>
+  </si>
+  <si>
+    <t>//input[@name="username"]</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>//input[@type="password"]</t>
+  </si>
+  <si>
+    <t>//button[text()=" Login "]</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>//div[@class="orangehrm-login-forgot"]</t>
+  </si>
+  <si>
+    <t>//p[text()="Username : Admin"]</t>
+  </si>
+  <si>
+    <t>User Name Text</t>
+  </si>
+  <si>
+    <t>Password Text</t>
+  </si>
+  <si>
+    <t>(//p[@class="oxd-text oxd-text--p"])[2]</t>
   </si>
 </sst>
 </file>
@@ -457,16 +520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,6 +687,7 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
@@ -684,9 +748,136 @@
         <v>33</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>
+    <hyperlink ref="C31" r:id="rId2" xr:uid="{88049A5B-AA8A-4AF8-9B85-18DCCBCFED10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA352D7-13BE-4917-BCE4-F5BD6B3E4E95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A3C60-E42C-4E0E-B507-A90FAB2A942A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A3C60-E42C-4E0E-B507-A90FAB2A942A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4A20F-F294-40D2-BE66-38E9C48B04C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>website name</t>
   </si>
@@ -185,6 +185,147 @@
   </si>
   <si>
     <t>(//p[@class="oxd-text oxd-text--p"])[2]</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search']</t>
+  </si>
+  <si>
+    <t>Arrow Button</t>
+  </si>
+  <si>
+    <t>//button[@class='oxd-icon-button oxd-main-menu-button']</t>
+  </si>
+  <si>
+    <t>//span[text()='Admin']</t>
+  </si>
+  <si>
+    <t>Admin Button</t>
+  </si>
+  <si>
+    <t>//span[text()="PIM"]</t>
+  </si>
+  <si>
+    <t>PIM Button</t>
+  </si>
+  <si>
+    <t>Time at work</t>
+  </si>
+  <si>
+    <t>//p[text()="Time at Work"]</t>
+  </si>
+  <si>
+    <t>//button[@title="Assign Leave"]</t>
+  </si>
+  <si>
+    <t>Assign Leave</t>
+  </si>
+  <si>
+    <t>//p[text()="Leave List"]</t>
+  </si>
+  <si>
+    <t>Leave List</t>
+  </si>
+  <si>
+    <t>//p[text()="Employees on Leave Today"]</t>
+  </si>
+  <si>
+    <t>Empoyees on leave today</t>
+  </si>
+  <si>
+    <t>//p[text()="Paul Collings"]</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>//a[text()="About"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //a[text()="Logout"]</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>//button[@title="My Timesheet"]</t>
+  </si>
+  <si>
+    <t>My Time Sheet</t>
+  </si>
+  <si>
+    <t>Apply Leave</t>
+  </si>
+  <si>
+    <t>//button[@title="Apply Leave"]</t>
+  </si>
+  <si>
+    <t>My Leave</t>
+  </si>
+  <si>
+    <t>//button[@title="My Leave"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timesheet to Approve </t>
+  </si>
+  <si>
+    <t>//p[text()=" (9) Timesheets to Approve"]</t>
+  </si>
+  <si>
+    <t>Pending self Reviews</t>
+  </si>
+  <si>
+    <t>//p[text()="(1) Pending Self Review"]</t>
+  </si>
+  <si>
+    <t>Candidate interview</t>
+  </si>
+  <si>
+    <t>//p[text()="(1) Candidate to Interview"]</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder="Type for hints..."])[1]</t>
+  </si>
+  <si>
+    <t>Employee Name Text box</t>
+  </si>
+  <si>
+    <t>(//input[@class="oxd-input oxd-input--active"])[2]</t>
+  </si>
+  <si>
+    <t>Employee Id</t>
+  </si>
+  <si>
+    <t>//a[text()="Add Employee"]</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>(//a[@class="oxd-topbar-body-nav-tab-item"])[3]</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder="Type for hints..."])[2]</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>//button[@type="reset"]</t>
+  </si>
+  <si>
+    <t>Reset button</t>
+  </si>
+  <si>
+    <t>//button[@class="oxd-button oxd-button--medium oxd-button--secondary"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(+)Add  </t>
   </si>
 </sst>
 </file>
@@ -235,10 +376,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,16 +662,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,11 +1016,276 @@
         <v>54</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>
     <hyperlink ref="C31" r:id="rId2" xr:uid="{88049A5B-AA8A-4AF8-9B85-18DCCBCFED10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4A20F-F294-40D2-BE66-38E9C48B04C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E86AE4-1626-4634-B313-C04BD5BB2919}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E86AE4-1626-4634-B313-C04BD5BB2919}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46400E30-9A2F-4BA3-9C5A-DB6F3A572431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>website name</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t xml:space="preserve">(+)Add  </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>text box</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +824,9 @@
       <c r="A16">
         <v>13</v>
       </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1278,6 +1287,11 @@
       </c>
       <c r="C64" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46400E30-9A2F-4BA3-9C5A-DB6F3A572431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C49FC-D8B4-4228-9A78-738E4D406A99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C49FC-D8B4-4228-9A78-738E4D406A99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDD59C-D820-494C-A7A9-C6D18B4ADA48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>website name</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,9 +1292,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDD59C-D820-494C-A7A9-C6D18B4ADA48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B147C-1973-4D05-AF6F-C3250444BD0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>website name</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>text box</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -673,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,12 +1289,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>103</v>
-      </c>
-      <c r="C65" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B147C-1973-4D05-AF6F-C3250444BD0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9156-2F3E-4FBE-AB48-0B0BB0C83A5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
   <si>
     <t>website name</t>
   </si>
@@ -332,6 +332,96 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>//input[@type="text"]</t>
+  </si>
+  <si>
+    <t>//input[@name="pass"]</t>
+  </si>
+  <si>
+    <t>//button[@value="1"]</t>
+  </si>
+  <si>
+    <t>user Name textbox</t>
+  </si>
+  <si>
+    <t>Password textbox</t>
+  </si>
+  <si>
+    <t>//a[text()="Forgotten password?"]</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>//a[text()="Create new account"]</t>
+  </si>
+  <si>
+    <t>Create account button</t>
+  </si>
+  <si>
+    <t>https://www.apsrtconline.in/</t>
+  </si>
+  <si>
+    <t>//a[@class="user"]</t>
+  </si>
+  <si>
+    <t>//a[text()="ATB/OPR Login"]</t>
+  </si>
+  <si>
+    <t>ATB/OPR Login button link</t>
+  </si>
+  <si>
+    <t>eTickect Login Button link</t>
+  </si>
+  <si>
+    <t>From textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="fromPlaceName"]</t>
+  </si>
+  <si>
+    <t>//input[@name="destination"]</t>
+  </si>
+  <si>
+    <t>To text box</t>
+  </si>
+  <si>
+    <t>//input[@name="txtJourneyDate"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depart on </t>
+  </si>
+  <si>
+    <t>//input[@class="calReturn hasDatepicker"]</t>
+  </si>
+  <si>
+    <t>For RoundTrip</t>
+  </si>
+  <si>
+    <t>//input[@value="Check Availability"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Availability </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//input[@value="Login"]</t>
+  </si>
+  <si>
+    <t>//input[@onclick="clearForm();"]</t>
+  </si>
+  <si>
+    <t>Clear Buttton</t>
   </si>
 </sst>
 </file>
@@ -668,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +1022,7 @@
         <v>39</v>
       </c>
     </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>0</v>
@@ -1289,17 +1380,227 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>
     <hyperlink ref="C31" r:id="rId2" xr:uid="{88049A5B-AA8A-4AF8-9B85-18DCCBCFED10}"/>
+    <hyperlink ref="C68" r:id="rId3" xr:uid="{32B22B21-0768-400C-B00A-9F5609701931}"/>
+    <hyperlink ref="C78" r:id="rId4" xr:uid="{60E3BF9F-5A08-482C-9DB1-B8B66D0E7B71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9156-2F3E-4FBE-AB48-0B0BB0C83A5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7EA79-2C90-4C95-BF22-B241FBBBD2A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>website name</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Clear Buttton</t>
+  </si>
+  <si>
+    <t>forgot password</t>
   </si>
 </sst>
 </file>
@@ -758,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,6 +1596,11 @@
         <v>132</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4118117A-F3F7-419D-A6F5-17D07E2593F6}"/>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7EA79-2C90-4C95-BF22-B241FBBBD2A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191706C-2B14-4F27-B71D-E99C581A333F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/xpath.xlsx
+++ b/xpath.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191706C-2B14-4F27-B71D-E99C581A333F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8684A8-078E-4B88-ADF1-4A9E8A74FB61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
